--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/134.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/134.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05572888538168796</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.606537455197039</v>
+        <v>-1.606423338810745</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04184282317093661</v>
+        <v>-0.04192939422260815</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1508074448812193</v>
+        <v>-0.1505587498600538</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05092647093696796</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.589545131773038</v>
+        <v>-1.589364119574088</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07132105327465589</v>
+        <v>-0.07146428901469425</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1254421267414587</v>
+        <v>-0.1251493591848968</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05104498476372658</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.637954876858201</v>
+        <v>-1.637786456812222</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1189430017896082</v>
+        <v>-0.1191035517399809</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1203202685207463</v>
+        <v>-0.1200652774230956</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05831574269750527</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.731698733665506</v>
+        <v>-1.731544479791618</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1465150947374323</v>
+        <v>-0.146628424114166</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1316075596395935</v>
+        <v>-0.1313210881595168</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07020475463899521</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760273476793599</v>
+        <v>-1.760249079497219</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1089164999869228</v>
+        <v>-0.1089448323311062</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1213119005671657</v>
+        <v>-0.1210521874121511</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08035911671323731</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.618692030851723</v>
+        <v>-1.618804573218896</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04439430816656503</v>
+        <v>-0.04442264051074844</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1217069793666122</v>
+        <v>-0.1214771725749023</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.07844055125760464</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332423599241646</v>
+        <v>-1.332401562973947</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006295175335481875</v>
+        <v>-0.006484057630037958</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1179891462021</v>
+        <v>-0.1176759163969611</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05718247980449245</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9144349514846415</v>
+        <v>-0.9142138017980987</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001335441084263408</v>
+        <v>-0.001807646820653614</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07790202722081406</v>
+        <v>-0.07758092732006873</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01063424858659724</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3926916853088599</v>
+        <v>-0.3921706849797094</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04556223035457013</v>
+        <v>-0.04616193163978569</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03023758018958664</v>
+        <v>-0.0299369425374182</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06412097216254266</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1679833698131729</v>
+        <v>0.1687074186089712</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09998394147354141</v>
+        <v>-0.1008701142388337</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05180816650821171</v>
+        <v>0.05211824827510795</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1666576973655511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8422632550150828</v>
+        <v>0.8433099777307478</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2248162499456564</v>
+        <v>-0.2259589878277207</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1310332709406392</v>
+        <v>0.1313921473002958</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2928547502575708</v>
       </c>
       <c r="E13" t="n">
-        <v>1.531806403636246</v>
+        <v>1.53305774883768</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4259570054184287</v>
+        <v>-0.4272964956906555</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2495820950805218</v>
+        <v>0.249959859669634</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.433584874142766</v>
       </c>
       <c r="E14" t="n">
-        <v>2.251588033596716</v>
+        <v>2.253064463532496</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.655156225747507</v>
+        <v>-0.6565775650140415</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3691225512668239</v>
+        <v>0.3695853128884863</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.578459609877051</v>
       </c>
       <c r="E15" t="n">
-        <v>2.980240835324837</v>
+        <v>2.981948646071448</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8997910645896205</v>
+        <v>-0.901406008208075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4807929118466225</v>
+        <v>0.4812950239463174</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.711871790388962</v>
       </c>
       <c r="E16" t="n">
-        <v>3.600682970501778</v>
+        <v>3.602411243496966</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.177272534455037</v>
+        <v>-1.179283343882499</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6231346090240862</v>
+        <v>0.6238271774374585</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8267989889739136</v>
       </c>
       <c r="E17" t="n">
-        <v>4.192098619062813</v>
+        <v>4.194011052295194</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.426690030397223</v>
+        <v>-1.429017217668066</v>
       </c>
       <c r="G17" t="n">
-        <v>0.771940802732732</v>
+        <v>0.7726837397579859</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9272925726454642</v>
       </c>
       <c r="E18" t="n">
-        <v>4.72127912558674</v>
+        <v>4.723160078436694</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.666049544154297</v>
+        <v>-1.668492421830555</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9068798879827187</v>
+        <v>0.9077204141934933</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.025368611901611</v>
       </c>
       <c r="E19" t="n">
-        <v>5.150451179200586</v>
+        <v>5.152393518796271</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.951012326903255</v>
+        <v>-1.953701538571998</v>
       </c>
       <c r="G19" t="n">
-        <v>1.051044299302649</v>
+        <v>1.051976118622459</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.128639390150847</v>
       </c>
       <c r="E20" t="n">
-        <v>5.487894120482391</v>
+        <v>5.489833312039834</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.203101720303849</v>
+        <v>-2.205893243215476</v>
       </c>
       <c r="G20" t="n">
-        <v>1.201742463995098</v>
+        <v>1.202671135276665</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.231934270194222</v>
       </c>
       <c r="E21" t="n">
-        <v>5.772500387900375</v>
+        <v>5.77445531964903</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.423681611924685</v>
+        <v>-2.426570724021832</v>
       </c>
       <c r="G21" t="n">
-        <v>1.339373121942509</v>
+        <v>1.340271886860771</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.323361607218106</v>
       </c>
       <c r="E22" t="n">
-        <v>5.97998444043199</v>
+        <v>5.981841782995124</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.629032868546936</v>
+        <v>-2.63195346102651</v>
       </c>
       <c r="G22" t="n">
-        <v>1.453931807609894</v>
+        <v>1.454899829369494</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.392117652878312</v>
       </c>
       <c r="E23" t="n">
-        <v>6.117385291587691</v>
+        <v>6.119395314005591</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.750885558822429</v>
+        <v>-2.7537062010878</v>
       </c>
       <c r="G23" t="n">
-        <v>1.553338985215639</v>
+        <v>1.554275526592813</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.436113456716515</v>
       </c>
       <c r="E24" t="n">
-        <v>6.220533912644767</v>
+        <v>6.222632080133461</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.826648608197556</v>
+        <v>-2.829297682378705</v>
       </c>
       <c r="G24" t="n">
-        <v>1.601146667986905</v>
+        <v>1.602081635344957</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.456005297309102</v>
       </c>
       <c r="E25" t="n">
-        <v>6.238247923835885</v>
+        <v>6.240372849649641</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.904535009367317</v>
+        <v>-2.907199823739679</v>
       </c>
       <c r="G25" t="n">
-        <v>1.653670112045587</v>
+        <v>1.654469713759208</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.453586122810079</v>
       </c>
       <c r="E26" t="n">
-        <v>6.227661071226017</v>
+        <v>6.22974664656174</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.966867740589946</v>
+        <v>-2.969434965776787</v>
       </c>
       <c r="G26" t="n">
-        <v>1.672262425906391</v>
+        <v>1.673060453600891</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.431360422808389</v>
       </c>
       <c r="E27" t="n">
-        <v>6.132047279702606</v>
+        <v>6.134124984942723</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.982441085776094</v>
+        <v>-2.984884750461914</v>
       </c>
       <c r="G27" t="n">
-        <v>1.678928396885099</v>
+        <v>1.67971540644575</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.393912661346043</v>
       </c>
       <c r="E28" t="n">
-        <v>5.970016177336792</v>
+        <v>5.971922314492687</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.992917757047472</v>
+        <v>-2.995308692092728</v>
       </c>
       <c r="G28" t="n">
-        <v>1.665525624067224</v>
+        <v>1.666249672863023</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.34568934285443</v>
       </c>
       <c r="E29" t="n">
-        <v>5.800939765384036</v>
+        <v>5.802743591297046</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.951631235495755</v>
+        <v>-2.953910415183398</v>
       </c>
       <c r="G29" t="n">
-        <v>1.62864793007427</v>
+        <v>1.629367256812705</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.291050179470479</v>
       </c>
       <c r="E30" t="n">
-        <v>5.609853844058133</v>
+        <v>5.611517582269347</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.924807588640109</v>
+        <v>-2.926946680625957</v>
       </c>
       <c r="G30" t="n">
-        <v>1.559948291505981</v>
+        <v>1.56058891728835</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.233394376406685</v>
       </c>
       <c r="E31" t="n">
-        <v>5.37194872396914</v>
+        <v>5.373503854860985</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.827286085941683</v>
+        <v>-2.829184353001971</v>
       </c>
       <c r="G31" t="n">
-        <v>1.485380709653482</v>
+        <v>1.486033927588821</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.174739412115666</v>
       </c>
       <c r="E32" t="n">
-        <v>5.140303477925561</v>
+        <v>5.141855460779163</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.765356303614107</v>
+        <v>-2.767275819932533</v>
       </c>
       <c r="G32" t="n">
-        <v>1.412446959648893</v>
+        <v>1.413057679067958</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.115620624723529</v>
       </c>
       <c r="E33" t="n">
-        <v>4.84656475156579</v>
+        <v>4.848061643750147</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.643274593556465</v>
+        <v>-2.645062679278262</v>
       </c>
       <c r="G33" t="n">
-        <v>1.339322753330627</v>
+        <v>1.339903566386387</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.055703853179547</v>
       </c>
       <c r="E34" t="n">
-        <v>4.588974948345811</v>
+        <v>4.590290828331218</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.567358864326572</v>
+        <v>-2.56909815545561</v>
       </c>
       <c r="G34" t="n">
-        <v>1.238996348558042</v>
+        <v>1.239542533193134</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9951309738356998</v>
       </c>
       <c r="E35" t="n">
-        <v>4.277898401364913</v>
+        <v>4.27900808484543</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.495349063546187</v>
+        <v>-2.496999422594871</v>
       </c>
       <c r="G35" t="n">
-        <v>1.147523801342774</v>
+        <v>1.148057393824895</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9334532116186588</v>
       </c>
       <c r="E36" t="n">
-        <v>3.939921867600988</v>
+        <v>3.940913499647407</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.400091787353751</v>
+        <v>-2.401697286857478</v>
       </c>
       <c r="G36" t="n">
-        <v>1.069809755266795</v>
+        <v>1.070207982104485</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8723675550883959</v>
       </c>
       <c r="E37" t="n">
-        <v>3.657783662165203</v>
+        <v>3.658671408949616</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.331947777535281</v>
+        <v>-2.333535175819113</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9827208513043497</v>
+        <v>0.9831442624479796</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8117508770149239</v>
       </c>
       <c r="E38" t="n">
-        <v>3.361430490044952</v>
+        <v>3.362063245731715</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.264659247109237</v>
+        <v>-2.266182897618656</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8943318075477096</v>
+        <v>0.8946875358691235</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7524208609511206</v>
       </c>
       <c r="E39" t="n">
-        <v>3.045114033409245</v>
+        <v>3.045642903834001</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.188527877259726</v>
+        <v>-2.189972039803519</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8068604169387877</v>
+        <v>0.8071689246865626</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6941462795953141</v>
       </c>
       <c r="E40" t="n">
-        <v>2.764175230543891</v>
+        <v>2.764756043599651</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.114219221552681</v>
+        <v>-2.115690142421537</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7404808825552951</v>
+        <v>0.740762631978008</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6373278512062339</v>
       </c>
       <c r="E41" t="n">
-        <v>2.46820926712748</v>
+        <v>2.468744433628722</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.056023799590391</v>
+        <v>-2.057373520986907</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6832479732856809</v>
+        <v>0.6834683359626629</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5831334119849622</v>
       </c>
       <c r="E42" t="n">
-        <v>2.194282719447521</v>
+        <v>2.194663632074876</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.972079785832304</v>
+        <v>-1.973299650651312</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6124422971330907</v>
+        <v>0.612605995121706</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5315438975347753</v>
       </c>
       <c r="E43" t="n">
-        <v>1.942384569370166</v>
+        <v>1.942689929079698</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.908421730509541</v>
+        <v>-1.909701408055158</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5413265392136043</v>
+        <v>0.541534309737616</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4829256304310394</v>
       </c>
       <c r="E44" t="n">
-        <v>1.739660350661365</v>
+        <v>1.7400176530019</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.857480175667765</v>
+        <v>-1.858734668907442</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4745267417247244</v>
+        <v>0.4747612705737982</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4365057862499437</v>
       </c>
       <c r="E45" t="n">
-        <v>1.529728698396129</v>
+        <v>1.529919154709806</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.772692487660661</v>
+        <v>-1.773924944632639</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4241077612312208</v>
+        <v>0.4242997915640195</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3932290106882947</v>
       </c>
       <c r="E46" t="n">
-        <v>1.332804740149321</v>
+        <v>1.333043991055759</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.713978426397903</v>
+        <v>-1.715170745882288</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3735282307873445</v>
+        <v>0.3736620224126551</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3527590120683669</v>
       </c>
       <c r="E47" t="n">
-        <v>1.179363060128445</v>
+        <v>1.179542498308273</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.683024553367964</v>
+        <v>-1.684197984622894</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3243165229598785</v>
+        <v>0.3245258675030115</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3154813120241139</v>
       </c>
       <c r="E48" t="n">
-        <v>1.003787523223838</v>
+        <v>1.003904000638814</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.620149572558047</v>
+        <v>-1.621341892042433</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2542947083296961</v>
+        <v>0.2544347960314918</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2809452378468154</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8572951376235044</v>
+        <v>0.8574226331723297</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.569808506011048</v>
+        <v>-1.571004760543237</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2197512846936312</v>
+        <v>0.2198976684719122</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.247323578469395</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7575511199258012</v>
+        <v>0.7576990777232033</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.517843838740427</v>
+        <v>-1.519099905999225</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1775046114779207</v>
+        <v>0.1776777535812638</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.214350896637501</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6428775308625608</v>
+        <v>0.6429672499524749</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.480329454012907</v>
+        <v>-1.481589456319509</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1433121941059059</v>
+        <v>0.1434916322857342</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.181598148820977</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5338483743683048</v>
+        <v>0.5340451267584674</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.437117120066279</v>
+        <v>-1.438347216009575</v>
       </c>
       <c r="G52" t="n">
-        <v>0.105135934337879</v>
+        <v>0.1052319495042784</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1501798852626209</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4635589764875012</v>
+        <v>0.4638659102161549</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.398423795016905</v>
+        <v>-1.399613753472608</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07246087139879803</v>
+        <v>0.07260882919620031</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1196242995795397</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3702448269003112</v>
+        <v>0.3706477757953642</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.344836314032223</v>
+        <v>-1.346125435692568</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04217202144760891</v>
+        <v>0.04229636895819166</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09046471742813535</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2783362763884428</v>
+        <v>0.2788415365263803</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.313252833353764</v>
+        <v>-1.314548251090594</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00879809401867042</v>
+        <v>0.00884216655406684</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.06227670038063769</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2130868877340441</v>
+        <v>0.2136787189236531</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.292936968555136</v>
+        <v>-1.294266227703074</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.009506174342935278</v>
+        <v>-0.009394418985322929</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.03536935577629637</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1368854740336352</v>
+        <v>0.1375009155100638</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.300060979098143</v>
+        <v>-1.301381581140914</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04535603384967974</v>
+        <v>-0.0452458525111887</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.009994239225725472</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07301964818685978</v>
+        <v>0.07367601416044217</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.281248302560357</v>
+        <v>-1.282514600943443</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07577552738793683</v>
+        <v>-0.07565432791559669</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.01399815901171225</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03454432478578577</v>
+        <v>0.03527939171543319</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.290972592691753</v>
+        <v>-1.292292407724963</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.10021217424613</v>
+        <v>-0.1001240291753372</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03619110439247168</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.02153797650615773</v>
+        <v>-0.02065967383647195</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.296344719952752</v>
+        <v>-1.297583473001216</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1056944828456203</v>
+        <v>-0.1055559691629459</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.05706189529473453</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.06101280204925769</v>
+        <v>-0.06009042684417548</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.277062985716819</v>
+        <v>-1.278252157162961</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1365169252789304</v>
+        <v>-0.136405169921318</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.07635997974351981</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1154644195315337</v>
+        <v>-0.1144963977719338</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.301232049324391</v>
+        <v>-1.302449553114717</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1445491448549278</v>
+        <v>-0.1444169272487385</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.09480896559264522</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1595652872721363</v>
+        <v>-0.1585768032639595</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.340229160064176</v>
+        <v>-1.341501754523747</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1628266548914714</v>
+        <v>-0.1627353617824359</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1130089753841829</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.217150776824922</v>
+        <v>-0.2159749845413104</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.380714505883151</v>
+        <v>-1.382041404002407</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1795081095390161</v>
+        <v>-0.179350707626886</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1318432538121356</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2721501529614107</v>
+        <v>-0.2708563092437015</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.413491880065116</v>
+        <v>-1.414832157346904</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2046326027532177</v>
+        <v>-0.2044956630896645</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1515242430714741</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3379709105568415</v>
+        <v>-0.3367526197569548</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.456799442168583</v>
+        <v>-1.458067314570791</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2108672924926897</v>
+        <v>-0.21072248273353</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1717993233849407</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3277051578477184</v>
+        <v>-0.3263310391548229</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.503558041195502</v>
+        <v>-1.50480151630133</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2441609449464418</v>
+        <v>-0.2440003949960692</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1925238440442591</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3523527232681659</v>
+        <v>-0.351139154525643</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.532751373838266</v>
+        <v>-1.534072762890598</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2543039241641035</v>
+        <v>-0.2541528183284586</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2129482747524808</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3804442425260193</v>
+        <v>-0.3792196556496473</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.590883048026143</v>
+        <v>-1.592287860091904</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2594446706142715</v>
+        <v>-0.2593423593713869</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2327166771819189</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.4065320354424569</v>
+        <v>-0.4053310588529044</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.609528878537071</v>
+        <v>-1.610902210220406</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2697969943750661</v>
+        <v>-0.2696931091130603</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2508214006231011</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4119624014109443</v>
+        <v>-0.4108306816627291</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.64603746504608</v>
+        <v>-1.647517830029663</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2880461720674263</v>
+        <v>-0.2879627490539974</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2668031545376778</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4094581369889548</v>
+        <v>-0.4083673417378935</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.678265506554711</v>
+        <v>-1.679766333786872</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2853262670258187</v>
+        <v>-0.2852664542992093</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2805974435411219</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3688814980609444</v>
+        <v>-0.3678678297468267</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.704106178469105</v>
+        <v>-1.705554276060701</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.286599648494951</v>
+        <v>-0.2866027965331935</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2920821572242983</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3275949765092274</v>
+        <v>-0.3265639939847754</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.73659235911363</v>
+        <v>-1.738023142494892</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2916191954727789</v>
+        <v>-0.2915971592050807</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3008956652117338</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2623849383328612</v>
+        <v>-0.2614704332233855</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.755780439211846</v>
+        <v>-1.757239554937291</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2943013240554752</v>
+        <v>-0.2943375264952651</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3068547266408521</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1544245408219683</v>
+        <v>-0.1535304979610695</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.764066075866373</v>
+        <v>-1.765519682524894</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.276601479036449</v>
+        <v>-0.2766833280307566</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3101527931870622</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.06671389930660877</v>
+        <v>-0.06588124319144072</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.750385488673588</v>
+        <v>-1.751836734303427</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2624652133080475</v>
+        <v>-0.2625990049333581</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3107199621417764</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06996605109153645</v>
+        <v>0.07069324792557737</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.754371692098282</v>
+        <v>-1.755819002680318</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2335803884130586</v>
+        <v>-0.2337802888414638</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3088205542061653</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1978582527354599</v>
+        <v>0.1985634133018026</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.783343875054503</v>
+        <v>-1.784787250588735</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2174356742858774</v>
+        <v>-0.2176088163892205</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3042533026013204</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3440027801099862</v>
+        <v>0.3447252548866632</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.742537429334782</v>
+        <v>-1.74385330932019</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1906206845353989</v>
+        <v>-0.1908331771167745</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2973082706099675</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4753074552088896</v>
+        <v>0.4759386368765312</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.723411522991858</v>
+        <v>-1.724559769940847</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1624300020729036</v>
+        <v>-0.1626173103483384</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2886192349183283</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6517125001904216</v>
+        <v>0.652479047502495</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.685918387522475</v>
+        <v>-1.686945434999124</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1368537653708887</v>
+        <v>-0.1370190373786253</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2781631479586519</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8266159309302327</v>
+        <v>0.8272817410185429</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.619120164052717</v>
+        <v>-1.620000040741524</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1163364261247343</v>
+        <v>-0.1166040093753554</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2654799190049861</v>
       </c>
       <c r="E84" t="n">
-        <v>1.006756123286611</v>
+        <v>1.007511652464836</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.542407981147446</v>
+        <v>-1.543118650780713</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09982496554229005</v>
+        <v>-0.1001366213283076</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.250529918136964</v>
       </c>
       <c r="E85" t="n">
-        <v>1.151916888710325</v>
+        <v>1.152803061475617</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.438203980269537</v>
+        <v>-1.43884932810927</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07838997314841728</v>
+        <v>-0.07878977400522766</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2337126149342346</v>
       </c>
       <c r="E86" t="n">
-        <v>1.315008879963895</v>
+        <v>1.315802185601031</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.323523308120251</v>
+        <v>-1.324026994239067</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04826324716672211</v>
+        <v>-0.04866304802353249</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2162658817927167</v>
       </c>
       <c r="E87" t="n">
-        <v>1.453831070386131</v>
+        <v>1.454728261285272</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.194625308257816</v>
+        <v>-1.195060524544856</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02388169097777446</v>
+        <v>-0.02430825015964694</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1996856387307855</v>
       </c>
       <c r="E88" t="n">
-        <v>1.547222346910264</v>
+        <v>1.547946395706063</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.050996063439128</v>
+        <v>-1.051296701091297</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01020818687103539</v>
+        <v>-0.01060641370872446</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1853192159736114</v>
       </c>
       <c r="E89" t="n">
-        <v>1.651266584847361</v>
+        <v>1.652058316465375</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9086882076727727</v>
+        <v>-0.90878186181049</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01451650548635582</v>
+        <v>0.01407735415151293</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1745722350418903</v>
       </c>
       <c r="E90" t="n">
-        <v>1.695625591723857</v>
+        <v>1.696395287074173</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7213641920467778</v>
+        <v>-0.7212225303258608</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01693577287579498</v>
+        <v>0.01643523479522136</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1685434158807243</v>
       </c>
       <c r="E91" t="n">
-        <v>1.716475049004606</v>
+        <v>1.717051140003002</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5369300755274911</v>
+        <v>-0.536756933424148</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0024608647559934</v>
+        <v>-0.002892145995229788</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1673342909296549</v>
       </c>
       <c r="E92" t="n">
-        <v>1.690125968914033</v>
+        <v>1.690635951109334</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3745400968020204</v>
+        <v>-0.3742630694366715</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.005072162478231241</v>
+        <v>-0.005556960367591852</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1712775717817477</v>
       </c>
       <c r="E93" t="n">
-        <v>1.648307428899316</v>
+        <v>1.648729266023824</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2226299373861697</v>
+        <v>-0.2223151335619096</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02180555975677885</v>
+        <v>-0.02220693463271053</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1807165106835754</v>
       </c>
       <c r="E94" t="n">
-        <v>1.551487938728989</v>
+        <v>1.551823204801826</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08537547000874973</v>
+        <v>-0.08499298336227366</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02773016772935464</v>
+        <v>-0.02814098672001412</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1952062939437828</v>
       </c>
       <c r="E95" t="n">
-        <v>1.481694356871396</v>
+        <v>1.482006012657413</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02167671846915265</v>
+        <v>0.0220308727714453</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06394205163399827</v>
+        <v>-0.06431824220398913</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2142260768135851</v>
       </c>
       <c r="E96" t="n">
-        <v>1.398367358608858</v>
+        <v>1.398630219802116</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1028803649370551</v>
+        <v>0.103272295698259</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0930645534163036</v>
+        <v>-0.09344231800541576</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2348212534200838</v>
       </c>
       <c r="E97" t="n">
-        <v>1.319507426612573</v>
+        <v>1.319686864792401</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1664439791125408</v>
+        <v>0.1668028554721974</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1120236137323704</v>
+        <v>-0.1124438768377577</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2544840959138617</v>
       </c>
       <c r="E98" t="n">
-        <v>1.223717344947577</v>
+        <v>1.223972336045227</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1987145191374475</v>
+        <v>0.1991143199942579</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1333484247877521</v>
+        <v>-0.1337230413386216</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2703958267714098</v>
       </c>
       <c r="E99" t="n">
-        <v>1.137163607486373</v>
+        <v>1.137423320641388</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2205414422925241</v>
+        <v>0.220870412288876</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1360321273895698</v>
+        <v>-0.1363847076727411</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2834023345223557</v>
       </c>
       <c r="E100" t="n">
-        <v>1.049463984104863</v>
+        <v>1.049689068839209</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2324835253658325</v>
+        <v>0.2328172174195482</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1505367135923556</v>
+        <v>-0.1508924419137695</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2937546290960473</v>
       </c>
       <c r="E101" t="n">
-        <v>0.959354537448641</v>
+        <v>0.9595402717049545</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2247220370786988</v>
+        <v>0.2251753545856334</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.163777362440737</v>
+        <v>-0.1641629971254557</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3091193055916042</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8992207109384696</v>
+        <v>0.8993466324681736</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2312620865277031</v>
+        <v>0.2316949417860608</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1887098253221399</v>
+        <v>-0.189123792351042</v>
       </c>
     </row>
   </sheetData>
